--- a/src/main/resources/QA.xlsx
+++ b/src/main/resources/QA.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Rest Assured" sheetId="4" r:id="rId2"/>
-    <sheet name="Example Series Cast" sheetId="2" r:id="rId3"/>
-    <sheet name="Series Cast" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Rest Assured" sheetId="4" r:id="rId3"/>
+    <sheet name="Example Series Cast" sheetId="2" r:id="rId4"/>
+    <sheet name="Series Cast" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="256">
   <si>
     <t>Series Cast</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Appearance</t>
   </si>
   <si>
-    <t>7 episodes, 2019-2020</t>
-  </si>
-  <si>
     <t>Tom Basden</t>
   </si>
   <si>
@@ -59,9 +57,6 @@
     <t>Diane Morgan</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Myra Ford</t>
   </si>
   <si>
@@ -71,15 +66,6 @@
     <t>Karen-J Sear</t>
   </si>
   <si>
-    <t>Checkout Assistant (uncredited)</t>
-  </si>
-  <si>
-    <t>Office Passerby (uncredited)</t>
-  </si>
-  <si>
-    <t>Passer by (uncredited)</t>
-  </si>
-  <si>
     <t>1 episode, 2019</t>
   </si>
   <si>
@@ -90,9 +76,6 @@
   </si>
   <si>
     <t>Kath</t>
-  </si>
-  <si>
-    <t>6 episodes, 2019</t>
   </si>
   <si>
     <t>URL</t>
@@ -761,6 +744,57 @@
     <t>Cole Anderson-James</t>
   </si>
   <si>
+    <t>Richie Lawrie</t>
+  </si>
+  <si>
+    <t>Child Guardian</t>
+  </si>
+  <si>
+    <t>Office Passerby</t>
+  </si>
+  <si>
+    <t>Passer by</t>
+  </si>
+  <si>
+    <t>Checkout Assistant</t>
+  </si>
+  <si>
+    <t>Ken Byrd</t>
+  </si>
+  <si>
+    <t>Passerby</t>
+  </si>
+  <si>
+    <t>Ruth Clarson-Horrocks</t>
+  </si>
+  <si>
+    <t>Pub Patron</t>
+  </si>
+  <si>
+    <t>Marc Hockley</t>
+  </si>
+  <si>
+    <t>Wedding Guest</t>
+  </si>
+  <si>
+    <t>A.k. Steppa</t>
+  </si>
+  <si>
+    <t>Wedding DJ</t>
+  </si>
+  <si>
+    <t>Ross Owen</t>
+  </si>
+  <si>
+    <t>Man in Cafe</t>
+  </si>
+  <si>
+    <t>Gleb Smatko</t>
+  </si>
+  <si>
+    <t>Cafe Patron</t>
+  </si>
+  <si>
     <t>Jonathan Addis</t>
   </si>
   <si>
@@ -771,57 +805,6 @@
   </si>
   <si>
     <t>Drug Dealer</t>
-  </si>
-  <si>
-    <t>Richie Lawrie</t>
-  </si>
-  <si>
-    <t>Child Guardian</t>
-  </si>
-  <si>
-    <t>Office Passerby</t>
-  </si>
-  <si>
-    <t>Passer by</t>
-  </si>
-  <si>
-    <t>Checkout Assistant</t>
-  </si>
-  <si>
-    <t>Ken Byrd</t>
-  </si>
-  <si>
-    <t>Passerby</t>
-  </si>
-  <si>
-    <t>Ruth Clarson-Horrocks</t>
-  </si>
-  <si>
-    <t>Pub Patron</t>
-  </si>
-  <si>
-    <t>Marc Hockley</t>
-  </si>
-  <si>
-    <t>Wedding Guest</t>
-  </si>
-  <si>
-    <t>A.k. Steppa</t>
-  </si>
-  <si>
-    <t>Wedding DJ</t>
-  </si>
-  <si>
-    <t>Ross Owen</t>
-  </si>
-  <si>
-    <t>Man in Cafe</t>
-  </si>
-  <si>
-    <t>Gleb Smatko</t>
-  </si>
-  <si>
-    <t>Cafe Patron</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1249,40 +1232,40 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>12345678</v>
@@ -1290,7 +1273,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>30012345678</v>
@@ -1298,34 +1281,34 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,6 +1325,980 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1365,7 +2322,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -1373,39 +2330,39 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8">
         <v>201</v>
@@ -1420,16 +2377,16 @@
     </row>
     <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E4" s="8">
         <v>200</v>
@@ -1444,16 +2401,16 @@
     </row>
     <row r="5" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8">
         <v>200</v>
@@ -1528,9 +2485,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -1561,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1569,161 +2526,953 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1734,12 +3483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1775,1030 +3524,1030 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>235</v>
+      </c>
+      <c r="B87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
         <v>151</v>
       </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>205</v>
-      </c>
-      <c r="B68" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" t="s">
-        <v>208</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B71" t="s">
-        <v>212</v>
-      </c>
-      <c r="C71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" t="s">
-        <v>220</v>
-      </c>
-      <c r="C75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>225</v>
-      </c>
-      <c r="B78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>227</v>
-      </c>
-      <c r="B79" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>229</v>
-      </c>
-      <c r="B80" t="s">
-        <v>230</v>
-      </c>
-      <c r="C80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>231</v>
-      </c>
-      <c r="B81" t="s">
-        <v>232</v>
-      </c>
-      <c r="C81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>233</v>
-      </c>
-      <c r="B82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>234</v>
-      </c>
-      <c r="B83" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" t="s">
-        <v>237</v>
-      </c>
-      <c r="C84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>240</v>
-      </c>
-      <c r="B86" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" t="s">
         <v>245</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>246</v>
       </c>
-      <c r="C87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="B94" t="s">
         <v>247</v>
       </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>248</v>
       </c>
-      <c r="C89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
         <v>249</v>
       </c>
-      <c r="C90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
+      <c r="C95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>250</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B96" t="s">
         <v>251</v>
       </c>
-      <c r="C91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>252</v>
-      </c>
-      <c r="B92" t="s">
-        <v>253</v>
-      </c>
-      <c r="C92" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" t="s">
-        <v>255</v>
-      </c>
-      <c r="C93" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>260</v>
-      </c>
-      <c r="B96" t="s">
-        <v>261</v>
-      </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
